--- a/doc/systems/HackerboatBeagleboneStateTransitions.xlsx
+++ b/doc/systems/HackerboatBeagleboneStateTransitions.xlsx
@@ -41,9 +41,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
     <t>Self-Test</t>
   </si>
   <si>
@@ -113,31 +110,34 @@
     <t>Heartbeat from shore station</t>
   </si>
   <si>
-    <t>Halt</t>
-  </si>
-  <si>
     <t>Loss of Signal</t>
   </si>
   <si>
-    <t>Steering</t>
-  </si>
-  <si>
     <t>Waypoint Navigation</t>
   </si>
   <si>
-    <t>Arduino indicates transition to Halt state</t>
-  </si>
-  <si>
     <t>Arduino indicates transition to Disarmed state</t>
   </si>
   <si>
-    <t>Shore station command to transition to Steering state.</t>
-  </si>
-  <si>
     <t>Shore station command to transition to Waypoint Navigation state.</t>
   </si>
   <si>
-    <t>Shore station command to transition to Halt state.</t>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Armed</t>
+  </si>
+  <si>
+    <t>Shore station command to transition to Active state.</t>
+  </si>
+  <si>
+    <t>Shore station command to transition to Armed state.</t>
+  </si>
+  <si>
+    <t>Arduino indicates transition to Armed state</t>
+  </si>
+  <si>
+    <t>Power Up</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -510,636 +510,636 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/systems/HackerboatBeagleboneStateTransitions.xlsx
+++ b/doc/systems/HackerboatBeagleboneStateTransitions.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -473,7 +476,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1143,6 +1146,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/systems/HackerboatBeagleboneStateTransitions.xlsx
+++ b/doc/systems/HackerboatBeagleboneStateTransitions.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -473,6 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -511,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -525,7 +526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -539,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -553,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -567,7 +568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -584,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -683,7 +684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -697,7 +698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -711,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -725,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -739,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -753,7 +754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -767,7 +768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -781,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -795,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -809,7 +810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -823,7 +824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -837,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -851,7 +852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -865,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -879,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -893,7 +894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -907,7 +908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -921,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -935,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -949,7 +950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -963,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -977,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -991,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1147,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:F46">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Fault"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>